--- a/trunk/Docs/PDSP_Documents - Milestone 2.xlsx
+++ b/trunk/Docs/PDSP_Documents - Milestone 2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="16" r:id="rId1"/>
     <sheet name="WBS Diagram" sheetId="9" r:id="rId2"/>
     <sheet name="RWT" sheetId="4" r:id="rId3"/>
     <sheet name="TRL (AIVAN)" sheetId="11" r:id="rId4"/>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$B$10:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'WBS Diagram'!$A$2:$M$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="191">
   <si>
     <t>SCHEDULE PLANNING TEMPLATE</t>
   </si>
@@ -541,64 +541,73 @@
     <t>19/02/2010</t>
   </si>
   <si>
+    <t>Work Scopes</t>
+  </si>
+  <si>
+    <t>Semantic Analyzer</t>
+  </si>
+  <si>
     <t>Lexical Analyzer</t>
   </si>
   <si>
     <t>Syntactic Analyzer</t>
   </si>
   <si>
-    <t>Semantic Analyzer</t>
-  </si>
-  <si>
     <t>Executable file Creator</t>
   </si>
   <si>
     <t>Installer</t>
   </si>
   <si>
-    <t>Work Scopes</t>
-  </si>
-  <si>
     <t>Init()</t>
   </si>
   <si>
+    <t>Scan()</t>
+  </si>
+  <si>
+    <t>GetToken()</t>
+  </si>
+  <si>
+    <t>LookAhead()</t>
+  </si>
+  <si>
+    <t>Token Object</t>
+  </si>
+  <si>
+    <t>Scanner()</t>
+  </si>
+  <si>
+    <t>Parser()</t>
+  </si>
+  <si>
+    <t>Parse()</t>
+  </si>
+  <si>
+    <t>Parse function for every EBNF production</t>
+  </si>
+  <si>
     <t>Not yet determined</t>
   </si>
   <si>
     <t>Tasks</t>
   </si>
   <si>
-    <t>Scan()</t>
-  </si>
-  <si>
-    <t>GetToken()</t>
-  </si>
-  <si>
-    <t>LookAhead()</t>
-  </si>
-  <si>
-    <t>Token Object</t>
-  </si>
-  <si>
-    <t>Scanner()</t>
+    <t>Scanner() constructor</t>
   </si>
   <si>
     <t>Init() function</t>
   </si>
   <si>
+    <t>GetToken() function</t>
+  </si>
+  <si>
     <t>Scan() function</t>
   </si>
   <si>
-    <t>GetToken() function</t>
-  </si>
-  <si>
     <t>LookAhead() function</t>
   </si>
   <si>
     <t>Token Class</t>
-  </si>
-  <si>
-    <t>Scanner() constructor</t>
   </si>
 </sst>
 </file>
@@ -609,7 +618,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +699,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -738,7 +752,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,12 +762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,9 +1418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1508,6 +1516,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1568,8 +1580,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1593,36 +1605,36 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="3" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1643,7 +1655,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1656,65 +1668,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1726,98 +1738,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="38" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="38" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1830,6 +1845,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1839,94 +1865,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1941,13 +1967,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1965,20 +1991,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2290,27 +2305,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -2324,11 +2339,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="G7" t="s">
         <v>12</v>
       </c>
@@ -2350,25 +2365,25 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="169" t="s">
+      <c r="F10" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="169" t="s">
+      <c r="G10" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="169" t="s">
+      <c r="H10" s="170" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2377,21 +2392,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="205">
+        <v>185</v>
+      </c>
+      <c r="D11" s="206">
         <v>5</v>
       </c>
-      <c r="E11" s="205">
+      <c r="E11" s="206">
         <v>6</v>
       </c>
-      <c r="F11" s="205">
+      <c r="F11" s="206">
         <v>4</v>
       </c>
-      <c r="G11" s="205">
+      <c r="G11" s="206">
         <v>4</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="84">
         <v>40224</v>
       </c>
     </row>
@@ -2400,21 +2415,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="205">
-        <v>2</v>
-      </c>
-      <c r="E12" s="205">
-        <v>2</v>
-      </c>
-      <c r="F12" s="205">
+        <v>186</v>
+      </c>
+      <c r="D12" s="206">
+        <v>2</v>
+      </c>
+      <c r="E12" s="206">
+        <v>2</v>
+      </c>
+      <c r="F12" s="206">
         <v>1</v>
       </c>
-      <c r="G12" s="205">
+      <c r="G12" s="206">
         <v>5</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="84">
         <v>40224</v>
       </c>
     </row>
@@ -2423,21 +2438,21 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="205">
-        <v>2</v>
-      </c>
-      <c r="E13" s="205">
-        <v>2</v>
-      </c>
-      <c r="F13" s="205">
+        <v>187</v>
+      </c>
+      <c r="D13" s="206">
+        <v>2</v>
+      </c>
+      <c r="E13" s="206">
+        <v>2</v>
+      </c>
+      <c r="F13" s="206">
         <v>1</v>
       </c>
-      <c r="G13" s="205">
+      <c r="G13" s="206">
         <v>6</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="84">
         <v>40224</v>
       </c>
     </row>
@@ -2446,21 +2461,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="260" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="205">
+        <v>188</v>
+      </c>
+      <c r="D14" s="206">
         <v>4</v>
       </c>
-      <c r="E14" s="205">
+      <c r="E14" s="206">
         <v>4</v>
       </c>
-      <c r="F14" s="205">
+      <c r="F14" s="206">
         <v>3</v>
       </c>
-      <c r="G14" s="205">
+      <c r="G14" s="206">
         <v>9</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="84">
         <v>40225</v>
       </c>
     </row>
@@ -2469,21 +2484,21 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="205">
+        <v>189</v>
+      </c>
+      <c r="D15" s="206">
         <v>3</v>
       </c>
-      <c r="E15" s="205">
+      <c r="E15" s="206">
         <v>3</v>
       </c>
-      <c r="F15" s="205">
+      <c r="F15" s="206">
         <v>10</v>
       </c>
-      <c r="G15" s="205">
+      <c r="G15" s="206">
         <v>19</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="84">
         <v>40226</v>
       </c>
     </row>
@@ -2492,21 +2507,21 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="205">
+        <v>190</v>
+      </c>
+      <c r="D16" s="206">
         <v>20</v>
       </c>
-      <c r="E16" s="205">
+      <c r="E16" s="206">
         <v>20</v>
       </c>
-      <c r="F16" s="205">
+      <c r="F16" s="206">
         <v>10</v>
       </c>
-      <c r="G16" s="205">
+      <c r="G16" s="206">
         <v>29</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="84">
         <v>40227</v>
       </c>
     </row>
@@ -2514,11 +2529,11 @@
       <c r="B17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="259"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="262"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="7"/>
@@ -2566,13 +2581,10 @@
     </row>
   </sheetData>
   <autoFilter ref="B10:J21"/>
-  <sortState ref="B11:J21">
-    <sortCondition ref="B11"/>
-  </sortState>
   <mergeCells count="3">
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2602,34 +2614,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="129">
         <v>40229</v>
       </c>
       <c r="I6" s="5"/>
@@ -2640,15 +2652,15 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="95">
         <v>2</v>
       </c>
       <c r="I7" s="5"/>
@@ -2659,7 +2671,7 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="95" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="5"/>
@@ -2668,549 +2680,549 @@
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:14" ht="30.75" thickBot="1">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="172" t="s">
+      <c r="D10" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="172" t="s">
+      <c r="F10" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="172" t="s">
+      <c r="G10" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="172" t="s">
+      <c r="H10" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="172" t="s">
+      <c r="I10" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="172" t="s">
+      <c r="K10" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="172" t="s">
+      <c r="L10" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="172" t="s">
+      <c r="M10" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="172" t="s">
+      <c r="N10" s="173" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="129">
+      <c r="B11" s="130">
         <v>1</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="131">
         <v>40211</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="130">
         <v>80</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="130">
+      <c r="G11" s="131">
         <v>40225</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="129" t="s">
+      <c r="I11" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="129"/>
-      <c r="K11" s="130">
+      <c r="J11" s="130"/>
+      <c r="K11" s="131">
         <v>40232</v>
       </c>
-      <c r="L11" s="129" t="s">
+      <c r="L11" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="129"/>
-      <c r="N11" s="132" t="s">
+      <c r="M11" s="130"/>
+      <c r="N11" s="133" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="133">
-        <v>2</v>
-      </c>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="134">
+        <v>2</v>
+      </c>
+      <c r="C12" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="135">
         <v>40220</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="134">
         <v>80</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="135">
         <v>40225</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134">
+      <c r="J12" s="134"/>
+      <c r="K12" s="135">
         <v>40231</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133" t="s">
+      <c r="M12" s="134"/>
+      <c r="N12" s="134" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="133">
+      <c r="B13" s="134">
         <v>3</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="135">
         <v>40225</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="134">
         <v>60</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="135">
         <v>40225</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134">
+      <c r="J13" s="134"/>
+      <c r="K13" s="135">
         <v>40232</v>
       </c>
-      <c r="L13" s="133" t="s">
+      <c r="L13" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133" t="s">
+      <c r="M13" s="134"/>
+      <c r="N13" s="134" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="133">
+      <c r="B14" s="134">
         <v>4</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="135">
         <v>40225</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="134">
         <v>60</v>
       </c>
-      <c r="F14" s="133" t="s">
+      <c r="F14" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="135">
         <v>40225</v>
       </c>
-      <c r="H14" s="133" t="s">
+      <c r="H14" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134">
+      <c r="J14" s="134"/>
+      <c r="K14" s="135">
         <v>40233</v>
       </c>
-      <c r="L14" s="133" t="s">
+      <c r="L14" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133" t="s">
+      <c r="M14" s="134"/>
+      <c r="N14" s="134" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="133">
+      <c r="B15" s="134">
         <v>5</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="134">
+      <c r="D15" s="135">
         <v>40228</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="134">
         <v>40</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="135">
         <v>40228</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="133" t="s">
+      <c r="I15" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="133"/>
-      <c r="K15" s="134">
+      <c r="J15" s="134"/>
+      <c r="K15" s="135">
         <v>40232</v>
       </c>
-      <c r="L15" s="133" t="s">
+      <c r="L15" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133" t="s">
+      <c r="M15" s="134"/>
+      <c r="N15" s="134" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="247" t="s">
+      <c r="D27" s="252" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="248"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="250" t="s">
+      <c r="E27" s="253"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="250"/>
-      <c r="L27" s="133" t="s">
+      <c r="K27" s="255"/>
+      <c r="L27" s="134" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" customHeight="1">
-      <c r="B28" s="66"/>
-      <c r="C28" s="67">
+      <c r="B28" s="67"/>
+      <c r="C28" s="68">
         <v>10</v>
       </c>
-      <c r="D28" s="243" t="s">
+      <c r="D28" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="246" t="s">
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="251" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="246"/>
-      <c r="L28" s="136" t="s">
+      <c r="K28" s="251"/>
+      <c r="L28" s="137" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="68">
         <v>20</v>
       </c>
-      <c r="D29" s="243" t="s">
+      <c r="D29" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="246" t="s">
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="250"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="251" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="246"/>
-      <c r="L29" s="136" t="s">
+      <c r="K29" s="251"/>
+      <c r="L29" s="137" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="31.5" customHeight="1">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="68">
         <v>30</v>
       </c>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="2:14" ht="31.5" customHeight="1">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="68">
         <v>40</v>
       </c>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="250"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="2:14" ht="33.75" customHeight="1">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="68">
         <v>50</v>
       </c>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="250"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="68">
         <v>60</v>
       </c>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67">
+      <c r="B34" s="67"/>
+      <c r="C34" s="68">
         <v>70</v>
       </c>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="245"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="250"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="2:12" ht="30" customHeight="1">
-      <c r="B35" s="66"/>
-      <c r="C35" s="67">
+      <c r="B35" s="67"/>
+      <c r="C35" s="68">
         <v>80</v>
       </c>
-      <c r="D35" s="243" t="s">
+      <c r="D35" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
+      <c r="E35" s="249"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="249"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67">
+      <c r="B36" s="67"/>
+      <c r="C36" s="68">
         <v>90</v>
       </c>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="245"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="E36" s="249"/>
+      <c r="F36" s="249"/>
+      <c r="G36" s="249"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67">
+      <c r="B37" s="67"/>
+      <c r="C37" s="68">
         <v>100</v>
       </c>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="250"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="136" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3236,16 +3248,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B3:M3"/>
@@ -3253,6 +3255,16 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3277,42 +3289,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="257" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
       <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1">
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
       <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="259"/>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:9" ht="13.5" thickBot="1">
@@ -4036,25 +4048,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="60" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="61" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="31" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="62" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="62" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="61" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="62" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="61" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="62" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="31" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="62" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="63" customWidth="1"/>
     <col min="14" max="256" width="9.140625" style="31"/>
     <col min="257" max="257" width="15.7109375" style="31" customWidth="1"/>
     <col min="258" max="258" width="2.7109375" style="31" customWidth="1"/>
@@ -4941,13 +4953,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
       <c r="F1" s="28"/>
       <c r="G1" s="29"/>
       <c r="H1" s="28"/>
@@ -4973,7 +4985,7 @@
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="165" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="29"/>
@@ -4987,7 +4999,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="255"/>
+      <c r="M3" s="207"/>
     </row>
     <row r="4" spans="1:13" ht="9" customHeight="1" thickBot="1">
       <c r="A4" s="34"/>
@@ -5005,7 +5017,7 @@
       <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="166" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="38"/>
@@ -5056,32 +5068,32 @@
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="166" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="38"/>
-      <c r="C8" s="167" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="167" t="s">
+      <c r="C8" s="168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="167" t="s">
-        <v>170</v>
-      </c>
       <c r="H8" s="40"/>
-      <c r="I8" s="167" t="s">
-        <v>171</v>
+      <c r="I8" s="168" t="s">
+        <v>172</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="167" t="s">
-        <v>172</v>
+      <c r="K8" s="168" t="s">
+        <v>173</v>
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="9" customHeight="1">
@@ -5115,32 +5127,32 @@
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="166" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="38"/>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>174</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="52" t="s">
-        <v>175</v>
+      <c r="E11" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="F11" s="48"/>
-      <c r="G11" s="52" t="s">
-        <v>175</v>
+      <c r="G11" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="52" t="s">
-        <v>175</v>
+      <c r="I11" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="J11" s="48"/>
-      <c r="K11" s="52" t="s">
-        <v>175</v>
+      <c r="K11" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="41" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5159,25 +5171,27 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="57"/>
+      <c r="C13" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53" t="s">
+        <v>181</v>
+      </c>
       <c r="F13" s="48"/>
-      <c r="G13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="48"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="48"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="49"/>
-      <c r="M13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="50"/>
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="49"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
@@ -5191,28 +5205,30 @@
       <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="52" t="s">
-        <v>178</v>
+      <c r="A15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="257"/>
+      <c r="E15" s="213" t="s">
+        <v>182</v>
+      </c>
       <c r="F15" s="48"/>
-      <c r="G15" s="57"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="48"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="48"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="50"/>
-      <c r="B16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="49"/>
       <c r="D16" s="48"/>
-      <c r="E16" s="257"/>
+      <c r="E16" s="214"/>
       <c r="F16" s="48"/>
       <c r="G16" s="49"/>
       <c r="H16" s="48"/>
@@ -5223,25 +5239,25 @@
       <c r="M16" s="51"/>
     </row>
     <row r="17" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="52" t="s">
-        <v>179</v>
+      <c r="A17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="53" t="s">
+        <v>177</v>
       </c>
       <c r="D17" s="48"/>
-      <c r="E17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="48"/>
-      <c r="G17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="48"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="49"/>
-      <c r="M17" s="54"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="50"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="49"/>
       <c r="D18" s="48"/>
       <c r="E18" s="49"/>
@@ -5255,25 +5271,25 @@
       <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="52" t="s">
-        <v>180</v>
+      <c r="A19" s="57"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="49"/>
-      <c r="M19" s="54"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="50"/>
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="49"/>
       <c r="D20" s="48"/>
       <c r="E20" s="49"/>
@@ -5287,25 +5303,25 @@
       <c r="M20" s="51"/>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="52" t="s">
-        <v>181</v>
+      <c r="A21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="57"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="48"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="49"/>
-      <c r="M21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="50"/>
-      <c r="B22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="49"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
@@ -5319,23 +5335,23 @@
       <c r="M22" s="51"/>
     </row>
     <row r="23" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="256"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="48"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="48"/>
-      <c r="K23" s="57"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="49"/>
-      <c r="M23" s="54"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="50"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="49"/>
       <c r="D24" s="48"/>
       <c r="E24" s="49"/>
@@ -5349,23 +5365,23 @@
       <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="256"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="48"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="48"/>
-      <c r="K25" s="57"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="49"/>
-      <c r="M25" s="54"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1">
       <c r="A26" s="50"/>
-      <c r="B26" s="55"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="49"/>
       <c r="D26" s="48"/>
       <c r="E26" s="49"/>
@@ -5379,22 +5395,22 @@
       <c r="M26" s="51"/>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="57"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="48"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="48"/>
-      <c r="K27" s="57"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="49"/>
-      <c r="M27" s="54"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="44"/>
@@ -5406,7 +5422,7 @@
       <c r="J28" s="44"/>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="59"/>
+      <c r="M28" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5446,29 +5462,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.75">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="64"/>
       <c r="H6" t="s">
         <v>2</v>
       </c>
@@ -5480,12 +5496,12 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="64"/>
       <c r="H7" t="s">
         <v>12</v>
       </c>
@@ -5505,197 +5521,194 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="220" t="s">
+      <c r="D10" s="227"/>
+      <c r="E10" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="221"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="220" t="s">
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B11" s="215"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="170" t="s">
+      <c r="B11" s="225"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="170" t="s">
+      <c r="F11" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="170" t="s">
+      <c r="G11" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="220"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="169" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="221" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="168" t="s">
+      <c r="D12" s="222"/>
+      <c r="E12" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="168" t="s">
+      <c r="F12" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="210"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="2"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
       <c r="B15" s="2"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="212"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="212"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="217"/>
       <c r="K22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="H10:J11"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -5708,13 +5721,16 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5738,31 +5754,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="83">
         <v>40228</v>
       </c>
       <c r="I6" s="5"/>
@@ -5772,11 +5788,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -5796,229 +5812,210 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B10" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="169" t="s">
+      <c r="B10" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="220" t="s">
+      <c r="F10" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="222"/>
-      <c r="H10" s="220" t="s">
+      <c r="G10" s="220"/>
+      <c r="H10" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="83">
+      <c r="B11" s="84">
         <v>40224</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="86">
         <v>0.375</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="85">
         <v>0.45833333333333331</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="212"/>
-      <c r="H11" s="210" t="s">
+      <c r="G11" s="217"/>
+      <c r="H11" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B12" s="83">
+      <c r="B12" s="84">
         <v>40224</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="86">
         <v>0.875</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="85">
         <v>0.95833333333333337</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="210" t="s">
+      <c r="F12" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="212"/>
-      <c r="H12" s="210" t="s">
+      <c r="G12" s="217"/>
+      <c r="H12" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="83">
+      <c r="B13" s="84">
         <v>40227</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="86">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="85">
         <v>0.625</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="210" t="s">
+      <c r="F13" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="212"/>
-      <c r="H13" s="210" t="s">
+      <c r="G13" s="217"/>
+      <c r="H13" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B14" s="83">
+      <c r="B14" s="84">
         <v>40227</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="86">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="85">
         <v>0.95833333333333337</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="210" t="s">
+      <c r="F14" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="212"/>
-      <c r="H14" s="210" t="s">
+      <c r="G14" s="217"/>
+      <c r="H14" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="212"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
-      <c r="C17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="212"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
-      <c r="C18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
-      <c r="C19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
-      <c r="C20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
-      <c r="C21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
-      <c r="C22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="F22:G22"/>
@@ -6029,6 +6026,25 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6052,31 +6068,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="83">
         <v>40229</v>
       </c>
       <c r="I6" s="5"/>
@@ -6086,11 +6102,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -6110,145 +6126,152 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B10" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="172" t="s">
+      <c r="B10" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="226" t="s">
+      <c r="F10" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="227"/>
-      <c r="H10" s="226" t="s">
+      <c r="G10" s="232"/>
+      <c r="H10" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="228"/>
-      <c r="J10" s="227"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="232"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="161">
+      <c r="B11" s="162">
         <v>40211</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="163">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="163">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="164">
         <v>4</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="212"/>
-      <c r="H11" s="210" t="s">
+      <c r="G11" s="217"/>
+      <c r="H11" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B12" s="161">
+      <c r="B12" s="162">
         <v>40211</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="163">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="163">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="164">
         <v>3</v>
       </c>
-      <c r="F12" s="210" t="s">
+      <c r="F12" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="212"/>
-      <c r="H12" s="210" t="s">
+      <c r="G12" s="217"/>
+      <c r="H12" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="161">
+      <c r="B13" s="162">
         <v>40212</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="163">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="163">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E13" s="163">
-        <v>2</v>
-      </c>
-      <c r="F13" s="210" t="s">
+      <c r="E13" s="164">
+        <v>2</v>
+      </c>
+      <c r="F13" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="212"/>
-      <c r="H13" s="210" t="s">
+      <c r="G13" s="217"/>
+      <c r="H13" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B14" s="161">
+      <c r="B14" s="162">
         <v>40218</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="163">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="163">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="164">
         <v>3</v>
       </c>
-      <c r="F14" s="210" t="s">
+      <c r="F14" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="212"/>
-      <c r="H14" s="210" t="s">
+      <c r="G14" s="217"/>
+      <c r="H14" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="161">
+      <c r="B15" s="162">
         <v>40228</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="163">
         <v>0.5</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="163">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="164">
         <v>3.5</v>
       </c>
-      <c r="F15" s="210" t="s">
+      <c r="F15" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="212"/>
-      <c r="H15" s="210" t="s">
+      <c r="G15" s="217"/>
+      <c r="H15" s="215" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="211"/>
-      <c r="J15" s="212"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="F12:G12"/>
@@ -6257,13 +6280,6 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6287,31 +6303,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="83">
         <v>40228</v>
       </c>
       <c r="I6" s="5"/>
@@ -6321,11 +6337,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -6345,229 +6361,228 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B10" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="169" t="s">
+      <c r="B10" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="220" t="s">
+      <c r="F10" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="222"/>
-      <c r="H10" s="220" t="s">
+      <c r="G10" s="220"/>
+      <c r="H10" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="83">
+      <c r="B11" s="84">
         <v>40225</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="86">
         <v>0.84375</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="85">
         <v>0.92708333333333337</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="212"/>
-      <c r="H11" s="210" t="s">
+      <c r="G11" s="217"/>
+      <c r="H11" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B12" s="83">
+      <c r="B12" s="84">
         <v>40226</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="86">
         <v>0.5625</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="85">
         <v>0.6875</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="210" t="s">
+      <c r="F12" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="212"/>
-      <c r="H12" s="210" t="s">
+      <c r="G12" s="217"/>
+      <c r="H12" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="83">
+      <c r="B13" s="84">
         <v>40226</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="86">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="85">
         <v>0.97916666666666663</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="210" t="s">
+      <c r="F13" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="212"/>
-      <c r="H13" s="210" t="s">
+      <c r="G13" s="217"/>
+      <c r="H13" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B14" s="83">
+      <c r="B14" s="84">
         <v>40227</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="86">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="85">
         <v>0.95833333333333337</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="210" t="s">
+      <c r="F14" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="212"/>
-      <c r="H14" s="210" t="s">
+      <c r="G14" s="217"/>
+      <c r="H14" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="83">
+      <c r="B15" s="84">
         <v>40229</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="86">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="85">
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="210" t="s">
+      <c r="F15" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="212"/>
-      <c r="H15" s="210" t="s">
+      <c r="G15" s="217"/>
+      <c r="H15" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="211"/>
-      <c r="J15" s="212"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="2"/>
-      <c r="C17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="212"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="2"/>
-      <c r="C18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="2"/>
-      <c r="C19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1">
       <c r="B20" s="2"/>
-      <c r="C20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1">
       <c r="B21" s="2"/>
-      <c r="C21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
-      <c r="C22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
@@ -6584,12 +6599,13 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6618,28 +6634,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="82">
         <v>40228</v>
       </c>
     </row>
@@ -6647,7 +6663,7 @@
       <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="81" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -6657,908 +6673,908 @@
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:9">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175" t="s">
+      <c r="C10" s="175"/>
+      <c r="D10" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178" t="s">
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="174"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="189" t="s">
+      <c r="F11" s="189" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="190" t="s">
+      <c r="H11" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="191" t="s">
+      <c r="I11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="71">
+      <c r="B12" s="72">
         <v>1</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="87">
         <v>3</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="88">
         <v>3</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="93">
         <v>40224</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="96">
         <v>3</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="89">
         <v>3</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="99">
         <v>40224</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="71">
-        <v>2</v>
-      </c>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="72">
+        <v>2</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="87">
         <v>3</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="89">
         <f>E12+D13</f>
         <v>6</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="93">
         <v>40224</v>
       </c>
-      <c r="G13" s="95">
-        <v>2</v>
-      </c>
-      <c r="H13" s="88">
+      <c r="G13" s="96">
+        <v>2</v>
+      </c>
+      <c r="H13" s="89">
         <f>H12+G13</f>
         <v>5</v>
       </c>
-      <c r="I13" s="98">
+      <c r="I13" s="99">
         <v>40224</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="71">
+      <c r="B14" s="72">
         <v>3</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="87">
         <v>1</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="89">
         <f t="shared" ref="E14:E33" si="0">E13+D14</f>
         <v>7</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="93">
         <v>40224</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="96">
         <v>0.3</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="89">
         <f t="shared" ref="H14:H33" si="1">H13+G14</f>
         <v>5.3</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="99">
         <v>40224</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="71">
+      <c r="B15" s="72">
         <v>5</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="87">
         <v>0.3</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="89">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="75">
         <v>40225</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="96">
         <v>0.25</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="89">
         <f t="shared" si="1"/>
         <v>5.55</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="100">
         <v>40225</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="71">
+      <c r="B16" s="72">
         <v>6</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="86">
-        <v>2</v>
-      </c>
-      <c r="E16" s="88">
+      <c r="D16" s="87">
+        <v>2</v>
+      </c>
+      <c r="E16" s="89">
         <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="75">
         <v>40225</v>
       </c>
-      <c r="G16" s="95">
-        <v>2</v>
-      </c>
-      <c r="H16" s="88">
+      <c r="G16" s="96">
+        <v>2</v>
+      </c>
+      <c r="H16" s="89">
         <f t="shared" si="1"/>
         <v>7.55</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="100">
         <v>40225</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="71">
+      <c r="B17" s="72">
         <v>7</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="86">
-        <v>2</v>
-      </c>
-      <c r="E17" s="88">
+      <c r="D17" s="87">
+        <v>2</v>
+      </c>
+      <c r="E17" s="89">
         <f t="shared" si="0"/>
         <v>11.3</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="92">
         <v>40225</v>
       </c>
-      <c r="G17" s="95">
-        <v>2</v>
-      </c>
-      <c r="H17" s="88">
+      <c r="G17" s="96">
+        <v>2</v>
+      </c>
+      <c r="H17" s="89">
         <f t="shared" si="1"/>
         <v>9.5500000000000007</v>
       </c>
-      <c r="I17" s="100">
+      <c r="I17" s="101">
         <v>40225</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="71">
+      <c r="B18" s="72">
         <v>8</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="87">
         <v>1</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="89">
         <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="75">
         <v>40225</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="96">
         <v>0.3</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="89">
         <f t="shared" si="1"/>
         <v>9.8500000000000014</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="100">
         <v>40225</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="71">
+      <c r="B19" s="72">
         <v>9</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="86">
-        <v>2</v>
-      </c>
-      <c r="E19" s="88">
+      <c r="D19" s="87">
+        <v>2</v>
+      </c>
+      <c r="E19" s="89">
         <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="75">
         <v>40226</v>
       </c>
-      <c r="G19" s="95">
-        <v>2</v>
-      </c>
-      <c r="H19" s="88">
+      <c r="G19" s="96">
+        <v>2</v>
+      </c>
+      <c r="H19" s="89">
         <f t="shared" si="1"/>
         <v>11.850000000000001</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="100">
         <v>40226</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="71">
+      <c r="B20" s="72">
         <v>10</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="86">
-        <v>2</v>
-      </c>
-      <c r="E20" s="88">
+      <c r="D20" s="87">
+        <v>2</v>
+      </c>
+      <c r="E20" s="89">
         <f t="shared" si="0"/>
         <v>16.3</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="75">
         <v>40226</v>
       </c>
-      <c r="G20" s="95">
-        <v>2</v>
-      </c>
-      <c r="H20" s="88">
+      <c r="G20" s="96">
+        <v>2</v>
+      </c>
+      <c r="H20" s="89">
         <f t="shared" si="1"/>
         <v>13.850000000000001</v>
       </c>
-      <c r="I20" s="99">
+      <c r="I20" s="100">
         <v>40226</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="71">
+      <c r="B21" s="72">
         <v>11</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="86">
-        <v>2</v>
-      </c>
-      <c r="E21" s="88">
+      <c r="D21" s="87">
+        <v>2</v>
+      </c>
+      <c r="E21" s="89">
         <f t="shared" si="0"/>
         <v>18.3</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="75">
         <v>40226</v>
       </c>
-      <c r="G21" s="95">
-        <v>2</v>
-      </c>
-      <c r="H21" s="88">
+      <c r="G21" s="96">
+        <v>2</v>
+      </c>
+      <c r="H21" s="89">
         <f t="shared" si="1"/>
         <v>15.850000000000001</v>
       </c>
-      <c r="I21" s="99">
+      <c r="I21" s="100">
         <v>40226</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="71">
+      <c r="B22" s="72">
         <v>12</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="87">
         <v>3</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="89">
         <f t="shared" si="0"/>
         <v>21.3</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="92">
         <v>40227</v>
       </c>
-      <c r="G22" s="95">
-        <v>2</v>
-      </c>
-      <c r="H22" s="88">
+      <c r="G22" s="96">
+        <v>2</v>
+      </c>
+      <c r="H22" s="89">
         <f t="shared" si="1"/>
         <v>17.850000000000001</v>
       </c>
-      <c r="I22" s="100">
+      <c r="I22" s="101">
         <v>40227</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="71">
+      <c r="B23" s="72">
         <v>13</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="87">
         <v>3</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="89">
         <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="75">
         <v>40227</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="96">
         <v>0.3</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="89">
         <f t="shared" si="1"/>
         <v>18.150000000000002</v>
       </c>
-      <c r="I23" s="99">
+      <c r="I23" s="100">
         <v>40227</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="71">
+      <c r="B24" s="72">
         <v>14</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="87">
         <v>0.3</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="89">
         <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="75">
         <v>40228</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="96">
         <v>0.3</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="89">
         <f t="shared" si="1"/>
         <v>18.450000000000003</v>
       </c>
-      <c r="I24" s="99">
+      <c r="I24" s="100">
         <v>40228</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="71">
+      <c r="B25" s="72">
         <v>15</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="86">
-        <v>2</v>
-      </c>
-      <c r="E25" s="88">
+      <c r="D25" s="87">
+        <v>2</v>
+      </c>
+      <c r="E25" s="89">
         <f t="shared" si="0"/>
         <v>26.6</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="75">
         <v>40228</v>
       </c>
-      <c r="G25" s="95">
-        <v>2</v>
-      </c>
-      <c r="H25" s="88">
+      <c r="G25" s="96">
+        <v>2</v>
+      </c>
+      <c r="H25" s="89">
         <f t="shared" si="1"/>
         <v>20.450000000000003</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="100">
         <v>40228</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="71">
+      <c r="B26" s="72">
         <v>16</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="86">
-        <v>2</v>
-      </c>
-      <c r="E26" s="88">
+      <c r="D26" s="87">
+        <v>2</v>
+      </c>
+      <c r="E26" s="89">
         <f t="shared" si="0"/>
         <v>28.6</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="75">
         <v>40228</v>
       </c>
-      <c r="G26" s="95">
-        <v>2</v>
-      </c>
-      <c r="H26" s="88">
+      <c r="G26" s="96">
+        <v>2</v>
+      </c>
+      <c r="H26" s="89">
         <f t="shared" si="1"/>
         <v>22.450000000000003</v>
       </c>
-      <c r="I26" s="99">
+      <c r="I26" s="100">
         <v>40228</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="71">
+      <c r="B27" s="72">
         <v>17</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="87">
         <v>4</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="89">
         <f t="shared" si="0"/>
         <v>32.6</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="75">
         <v>40228</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="96">
         <v>4</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="89">
         <f t="shared" si="1"/>
         <v>26.450000000000003</v>
       </c>
-      <c r="I27" s="99">
+      <c r="I27" s="100">
         <v>40228</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="71">
+      <c r="B28" s="72">
         <v>18</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="86">
-        <v>2</v>
-      </c>
-      <c r="E28" s="88">
+      <c r="D28" s="87">
+        <v>2</v>
+      </c>
+      <c r="E28" s="89">
         <f t="shared" si="0"/>
         <v>34.6</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="75">
         <v>40229</v>
       </c>
-      <c r="G28" s="95">
-        <v>2</v>
-      </c>
-      <c r="H28" s="88">
+      <c r="G28" s="96">
+        <v>2</v>
+      </c>
+      <c r="H28" s="89">
         <f t="shared" si="1"/>
         <v>28.450000000000003</v>
       </c>
-      <c r="I28" s="99">
+      <c r="I28" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <v>19</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="87">
         <v>1</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="89">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="75">
         <v>40229</v>
       </c>
-      <c r="G29" s="95">
+      <c r="G29" s="96">
         <v>1</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="89">
         <f t="shared" si="1"/>
         <v>29.450000000000003</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <v>20</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="87">
         <v>1</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="89">
         <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="75">
         <v>40229</v>
       </c>
-      <c r="G30" s="95">
+      <c r="G30" s="96">
         <v>1</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="89">
         <f t="shared" si="1"/>
         <v>30.450000000000003</v>
       </c>
-      <c r="I30" s="99">
+      <c r="I30" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="71">
+      <c r="B31" s="72">
         <v>21</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="87">
         <v>3</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="89">
         <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="75">
         <v>40229</v>
       </c>
-      <c r="G31" s="95">
-        <v>2</v>
-      </c>
-      <c r="H31" s="88">
+      <c r="G31" s="96">
+        <v>2</v>
+      </c>
+      <c r="H31" s="89">
         <f t="shared" si="1"/>
         <v>32.450000000000003</v>
       </c>
-      <c r="I31" s="99">
+      <c r="I31" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="71">
+      <c r="B32" s="72">
         <v>22</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="86">
-        <v>2</v>
-      </c>
-      <c r="E32" s="88">
+      <c r="D32" s="87">
+        <v>2</v>
+      </c>
+      <c r="E32" s="89">
         <f t="shared" si="0"/>
         <v>41.6</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="75">
         <v>40229</v>
       </c>
-      <c r="G32" s="95">
-        <v>2</v>
-      </c>
-      <c r="H32" s="88">
+      <c r="G32" s="96">
+        <v>2</v>
+      </c>
+      <c r="H32" s="89">
         <f t="shared" si="1"/>
         <v>34.450000000000003</v>
       </c>
-      <c r="I32" s="99">
+      <c r="I32" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="71">
+      <c r="B33" s="72">
         <v>23</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="86">
-        <v>2</v>
-      </c>
-      <c r="E33" s="88">
+      <c r="D33" s="87">
+        <v>2</v>
+      </c>
+      <c r="E33" s="89">
         <f t="shared" si="0"/>
         <v>43.6</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="75">
         <v>40229</v>
       </c>
-      <c r="G33" s="95">
-        <v>2</v>
-      </c>
-      <c r="H33" s="88">
+      <c r="G33" s="96">
+        <v>2</v>
+      </c>
+      <c r="H33" s="89">
         <f t="shared" si="1"/>
         <v>36.450000000000003</v>
       </c>
-      <c r="I33" s="99">
+      <c r="I33" s="100">
         <v>40229</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="13.5" thickBot="1">
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="97"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="98"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B36" s="72"/>
-      <c r="C36" s="78" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="72"/>
-      <c r="C37" s="76" t="s">
+      <c r="B37" s="73"/>
+      <c r="C37" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="72"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="72"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="26" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="72"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B42" s="72"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7580,736 +7596,736 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="101"/>
-    <col min="2" max="2" width="15.5703125" style="101" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="101" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="101"/>
-    <col min="8" max="9" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="101"/>
+    <col min="1" max="1" width="9.140625" style="102"/>
+    <col min="2" max="2" width="15.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="102" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="102"/>
+    <col min="8" max="9" width="10.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="102"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75">
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="240" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="232"/>
-      <c r="E6" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="137">
+      <c r="D6" s="241"/>
+      <c r="E6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="138">
         <v>40229</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="140"/>
+      <c r="E7" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="105" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:15" ht="15" customHeight="1">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="233" t="s">
+      <c r="C10" s="243"/>
+      <c r="D10" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="233" t="s">
+      <c r="E10" s="244"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="235"/>
-      <c r="I10" s="234"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="2:15" ht="13.5" thickBot="1">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="180" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="183" t="s">
+      <c r="F11" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="182" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="140">
+      <c r="B12" s="141">
         <v>1</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="143">
         <v>1</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="144">
         <f>D12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="145">
         <v>40224</v>
       </c>
-      <c r="G12" s="145">
+      <c r="G12" s="146">
         <v>40224</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="147">
         <v>0.5</v>
       </c>
-      <c r="I12" s="147">
+      <c r="I12" s="148">
         <f>H12</f>
         <v>0.5</v>
       </c>
-      <c r="K12" s="148" t="s">
+      <c r="K12" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="230" t="s">
+      <c r="L12" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="230"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="230"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="149">
-        <v>2</v>
-      </c>
-      <c r="C13" s="150" t="s">
+      <c r="B13" s="150">
+        <v>2</v>
+      </c>
+      <c r="C13" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="151">
-        <v>2</v>
-      </c>
-      <c r="E13" s="152">
+      <c r="D13" s="152">
+        <v>2</v>
+      </c>
+      <c r="E13" s="153">
         <f>E12+D13</f>
         <v>3</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="145">
         <v>40224</v>
       </c>
-      <c r="G13" s="153">
+      <c r="G13" s="154">
         <v>40224</v>
       </c>
-      <c r="H13" s="154">
-        <v>2</v>
-      </c>
-      <c r="I13" s="155">
+      <c r="H13" s="155">
+        <v>2</v>
+      </c>
+      <c r="I13" s="156">
         <f>I12+H13</f>
         <v>2.5</v>
       </c>
-      <c r="K13" s="156" t="s">
+      <c r="K13" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="236" t="s">
+      <c r="L13" s="235" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="236"/>
-      <c r="N13" s="236"/>
-      <c r="O13" s="236"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="140">
+      <c r="B14" s="141">
         <v>3</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="151">
-        <v>2</v>
-      </c>
-      <c r="E14" s="152">
+      <c r="D14" s="152">
+        <v>2</v>
+      </c>
+      <c r="E14" s="153">
         <f>E13+D14</f>
         <v>5</v>
       </c>
-      <c r="F14" s="144">
+      <c r="F14" s="145">
         <v>40224</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="154">
         <v>40224</v>
       </c>
-      <c r="H14" s="154">
-        <v>2</v>
-      </c>
-      <c r="I14" s="155">
+      <c r="H14" s="155">
+        <v>2</v>
+      </c>
+      <c r="I14" s="156">
         <f>I13+H14</f>
         <v>4.5</v>
       </c>
-      <c r="K14" s="156" t="s">
+      <c r="K14" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="236" t="s">
+      <c r="L14" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
+      <c r="M14" s="235"/>
+      <c r="N14" s="235"/>
+      <c r="O14" s="235"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="149">
+      <c r="B15" s="150">
         <v>4</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="151">
-        <v>2</v>
-      </c>
-      <c r="E15" s="152">
+      <c r="D15" s="152">
+        <v>2</v>
+      </c>
+      <c r="E15" s="153">
         <f t="shared" ref="E15:E31" si="0">E14+D15</f>
         <v>7</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="145">
         <v>40224</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="154">
         <v>40224</v>
       </c>
-      <c r="H15" s="154">
+      <c r="H15" s="155">
         <v>3</v>
       </c>
-      <c r="I15" s="155">
+      <c r="I15" s="156">
         <f t="shared" ref="I15:I31" si="1">I14+H15</f>
         <v>7.5</v>
       </c>
-      <c r="K15" s="156" t="s">
+      <c r="K15" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="237" t="s">
+      <c r="L15" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="239"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="238"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="140">
+      <c r="B16" s="141">
         <v>5</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="151">
+      <c r="D16" s="152">
         <v>1</v>
       </c>
-      <c r="E16" s="152">
+      <c r="E16" s="153">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="145">
         <v>40225</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="154">
         <v>40225</v>
       </c>
-      <c r="H16" s="154">
+      <c r="H16" s="155">
         <v>1</v>
       </c>
-      <c r="I16" s="155">
+      <c r="I16" s="156">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="K16" s="156" t="s">
+      <c r="K16" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="157" t="s">
+      <c r="L16" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="149">
+      <c r="B17" s="150">
         <v>6</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="152">
         <v>10</v>
       </c>
-      <c r="E17" s="152">
+      <c r="E17" s="153">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F17" s="144">
+      <c r="F17" s="145">
         <v>40225</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="154">
         <v>40225</v>
       </c>
-      <c r="H17" s="154">
+      <c r="H17" s="155">
         <v>7</v>
       </c>
-      <c r="I17" s="155">
+      <c r="I17" s="156">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="K17" s="156" t="s">
+      <c r="K17" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="L17" s="237" t="s">
+      <c r="L17" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="239"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="238"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="140">
+      <c r="B18" s="141">
         <v>7</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="152">
         <v>1</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="153">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="145">
         <v>40226</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="154">
         <v>40226</v>
       </c>
-      <c r="H18" s="154">
+      <c r="H18" s="155">
         <v>0.75</v>
       </c>
-      <c r="I18" s="155">
+      <c r="I18" s="156">
         <f t="shared" si="1"/>
         <v>16.25</v>
       </c>
-      <c r="K18" s="156" t="s">
+      <c r="K18" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="236" t="s">
+      <c r="L18" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="M18" s="236"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="149">
+      <c r="B19" s="150">
         <v>8</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="151">
+      <c r="D19" s="152">
         <v>0.5</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="153">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="F19" s="144">
+      <c r="F19" s="145">
         <v>40226</v>
       </c>
-      <c r="G19" s="153">
+      <c r="G19" s="154">
         <v>40226</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="155">
         <v>1</v>
       </c>
-      <c r="I19" s="155">
+      <c r="I19" s="156">
         <f t="shared" si="1"/>
         <v>17.25</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="140">
+      <c r="B20" s="141">
         <v>9</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="151">
-        <v>2</v>
-      </c>
-      <c r="E20" s="152">
+      <c r="D20" s="152">
+        <v>2</v>
+      </c>
+      <c r="E20" s="153">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="F20" s="144">
+      <c r="F20" s="145">
         <v>40226</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="154">
         <v>40226</v>
       </c>
-      <c r="H20" s="154">
-        <v>2</v>
-      </c>
-      <c r="I20" s="155">
+      <c r="H20" s="155">
+        <v>2</v>
+      </c>
+      <c r="I20" s="156">
         <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="149">
+      <c r="B21" s="150">
         <v>10</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="151">
-        <v>2</v>
-      </c>
-      <c r="E21" s="152">
+      <c r="D21" s="152">
+        <v>2</v>
+      </c>
+      <c r="E21" s="153">
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-      <c r="F21" s="144">
+      <c r="F21" s="145">
         <v>40226</v>
       </c>
-      <c r="G21" s="153">
+      <c r="G21" s="154">
         <v>40226</v>
       </c>
-      <c r="H21" s="154">
-        <v>2</v>
-      </c>
-      <c r="I21" s="155">
+      <c r="H21" s="155">
+        <v>2</v>
+      </c>
+      <c r="I21" s="156">
         <f t="shared" si="1"/>
         <v>21.25</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="140">
+      <c r="B22" s="141">
         <v>11</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="151">
+      <c r="D22" s="152">
         <v>1</v>
       </c>
-      <c r="E22" s="152">
+      <c r="E22" s="153">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="F22" s="144">
+      <c r="F22" s="145">
         <v>40227</v>
       </c>
-      <c r="G22" s="153">
+      <c r="G22" s="154">
         <v>40227</v>
       </c>
-      <c r="H22" s="154">
+      <c r="H22" s="155">
         <v>0.25</v>
       </c>
-      <c r="I22" s="155">
+      <c r="I22" s="156">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="149">
+      <c r="B23" s="150">
         <v>12</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="151">
-        <v>2</v>
-      </c>
-      <c r="E23" s="152">
+      <c r="D23" s="152">
+        <v>2</v>
+      </c>
+      <c r="E23" s="153">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="F23" s="144">
+      <c r="F23" s="145">
         <v>40227</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="154">
         <v>40227</v>
       </c>
-      <c r="H23" s="154">
-        <v>2</v>
-      </c>
-      <c r="I23" s="155">
+      <c r="H23" s="155">
+        <v>2</v>
+      </c>
+      <c r="I23" s="156">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="140">
+      <c r="B24" s="141">
         <v>13</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="151">
-        <v>2</v>
-      </c>
-      <c r="E24" s="152">
+      <c r="D24" s="152">
+        <v>2</v>
+      </c>
+      <c r="E24" s="153">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="F24" s="144">
+      <c r="F24" s="145">
         <v>40227</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="154">
         <v>40227</v>
       </c>
-      <c r="H24" s="154">
-        <v>2</v>
-      </c>
-      <c r="I24" s="155">
+      <c r="H24" s="155">
+        <v>2</v>
+      </c>
+      <c r="I24" s="156">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="149">
+      <c r="B25" s="150">
         <v>14</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="151">
+      <c r="D25" s="152">
         <v>4</v>
       </c>
-      <c r="E25" s="152">
+      <c r="E25" s="153">
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="F25" s="144">
+      <c r="F25" s="145">
         <v>40227</v>
       </c>
-      <c r="G25" s="153">
+      <c r="G25" s="154">
         <v>40227</v>
       </c>
-      <c r="H25" s="154">
-        <v>2</v>
-      </c>
-      <c r="I25" s="155">
+      <c r="H25" s="155">
+        <v>2</v>
+      </c>
+      <c r="I25" s="156">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="140">
+      <c r="B26" s="141">
         <v>15</v>
       </c>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="151">
-        <v>2</v>
-      </c>
-      <c r="E26" s="152">
+      <c r="D26" s="152">
+        <v>2</v>
+      </c>
+      <c r="E26" s="153">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="F26" s="144">
+      <c r="F26" s="145">
         <v>40228</v>
       </c>
-      <c r="G26" s="153">
+      <c r="G26" s="154">
         <v>40228</v>
       </c>
-      <c r="H26" s="154">
+      <c r="H26" s="155">
         <v>3</v>
       </c>
-      <c r="I26" s="155">
+      <c r="I26" s="156">
         <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="149">
+      <c r="B27" s="150">
         <v>16</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="152">
         <v>10</v>
       </c>
-      <c r="E27" s="152">
+      <c r="E27" s="153">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="F27" s="144">
+      <c r="F27" s="145">
         <v>40228</v>
       </c>
-      <c r="G27" s="153">
+      <c r="G27" s="154">
         <v>40228</v>
       </c>
-      <c r="H27" s="154">
+      <c r="H27" s="155">
         <v>7</v>
       </c>
-      <c r="I27" s="155">
+      <c r="I27" s="156">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="140">
+      <c r="B28" s="141">
         <v>17</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="152">
         <v>1</v>
       </c>
-      <c r="E28" s="152">
+      <c r="E28" s="153">
         <f t="shared" si="0"/>
         <v>45.5</v>
       </c>
-      <c r="F28" s="144">
+      <c r="F28" s="145">
         <v>40229</v>
       </c>
-      <c r="G28" s="153">
+      <c r="G28" s="154">
         <v>40229</v>
       </c>
-      <c r="H28" s="154">
+      <c r="H28" s="155">
         <v>1</v>
       </c>
-      <c r="I28" s="155">
+      <c r="I28" s="156">
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="149">
+      <c r="B29" s="150">
         <v>18</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="152">
         <v>3</v>
       </c>
-      <c r="E29" s="152">
+      <c r="E29" s="153">
         <f t="shared" si="0"/>
         <v>48.5</v>
       </c>
-      <c r="F29" s="144">
+      <c r="F29" s="145">
         <v>40229</v>
       </c>
-      <c r="G29" s="153">
+      <c r="G29" s="154">
         <v>40229</v>
       </c>
-      <c r="H29" s="154">
+      <c r="H29" s="155">
         <v>3</v>
       </c>
-      <c r="I29" s="155">
+      <c r="I29" s="156">
         <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="140">
+      <c r="B30" s="141">
         <v>19</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="151">
-        <v>2</v>
-      </c>
-      <c r="E30" s="152">
+      <c r="D30" s="152">
+        <v>2</v>
+      </c>
+      <c r="E30" s="153">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="F30" s="144">
+      <c r="F30" s="145">
         <v>40229</v>
       </c>
-      <c r="G30" s="153">
+      <c r="G30" s="154">
         <v>40229</v>
       </c>
-      <c r="H30" s="154">
-        <v>2</v>
-      </c>
-      <c r="I30" s="155">
+      <c r="H30" s="155">
+        <v>2</v>
+      </c>
+      <c r="I30" s="156">
         <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="158">
+      <c r="B31" s="159">
         <v>20</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="152">
-        <v>2</v>
-      </c>
-      <c r="E31" s="152">
+      <c r="D31" s="153">
+        <v>2</v>
+      </c>
+      <c r="E31" s="153">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="F31" s="160">
+      <c r="F31" s="161">
         <v>40229</v>
       </c>
-      <c r="G31" s="160">
+      <c r="G31" s="161">
         <v>40229</v>
       </c>
-      <c r="H31" s="152">
-        <v>2</v>
-      </c>
-      <c r="I31" s="152">
+      <c r="H31" s="153">
+        <v>2</v>
+      </c>
+      <c r="I31" s="153">
         <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8327,1017 +8343,1017 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="101"/>
-    <col min="2" max="2" width="15.5703125" style="101" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="101"/>
-    <col min="12" max="12" width="29.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="101"/>
+    <col min="1" max="1" width="9.140625" style="102"/>
+    <col min="2" max="2" width="15.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="102"/>
+    <col min="12" max="12" width="29.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="102"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="240" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="103">
+      <c r="E6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="104">
         <v>40228</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="105"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:12" ht="15" customHeight="1">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194" t="s">
+      <c r="C10" s="194"/>
+      <c r="D10" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="240" t="s">
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="241"/>
-      <c r="I10" s="242"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="247"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="200" t="s">
+      <c r="E11" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="201" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="202" t="s">
+      <c r="F11" s="202" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="203" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="204" t="s">
+      <c r="H11" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="205" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B12" s="105">
+      <c r="B12" s="106">
         <v>1</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="109">
         <v>0.25</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="110">
         <v>0.25</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="111">
         <v>40224</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="112">
         <v>0.25</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="111">
         <v>40224</v>
       </c>
-      <c r="I12" s="112">
+      <c r="I12" s="113">
         <v>0.25</v>
       </c>
-      <c r="K12" s="113" t="s">
+      <c r="K12" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="114" t="s">
+      <c r="L12" s="115" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="105">
-        <v>2</v>
-      </c>
-      <c r="C13" s="106" t="s">
+      <c r="B13" s="106">
+        <v>2</v>
+      </c>
+      <c r="C13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="109">
         <v>0.25</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="110">
         <v>0.5</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="111">
         <v>40224</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="112">
         <v>0.25</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H13" s="111">
         <v>40224</v>
       </c>
-      <c r="I13" s="112">
+      <c r="I13" s="113">
         <v>0.5</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="116" t="s">
+      <c r="L13" s="117" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="105">
+      <c r="B14" s="106">
         <v>3</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="108">
-        <v>2</v>
-      </c>
-      <c r="E14" s="117">
+      <c r="D14" s="109">
+        <v>2</v>
+      </c>
+      <c r="E14" s="118">
         <v>2.5</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="111">
         <v>40224</v>
       </c>
-      <c r="G14" s="111">
-        <v>2</v>
-      </c>
-      <c r="H14" s="110">
+      <c r="G14" s="112">
+        <v>2</v>
+      </c>
+      <c r="H14" s="111">
         <v>40224</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I14" s="119">
         <v>2.5</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="K14" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="106" t="s">
+      <c r="L14" s="107" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="105">
+      <c r="B15" s="106">
         <v>4</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="108">
-        <v>2</v>
-      </c>
-      <c r="E15" s="109">
+      <c r="D15" s="109">
+        <v>2</v>
+      </c>
+      <c r="E15" s="110">
         <v>4.5</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="111">
         <v>40224</v>
       </c>
-      <c r="G15" s="111">
-        <v>2</v>
-      </c>
-      <c r="H15" s="110">
+      <c r="G15" s="112">
+        <v>2</v>
+      </c>
+      <c r="H15" s="111">
         <v>40224</v>
       </c>
-      <c r="I15" s="112">
+      <c r="I15" s="113">
         <v>4.5</v>
       </c>
-      <c r="K15" s="105" t="s">
+      <c r="K15" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="106" t="s">
+      <c r="L15" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="105">
+      <c r="B16" s="106">
         <v>5</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="108">
-        <v>2</v>
-      </c>
-      <c r="E16" s="109">
+      <c r="D16" s="109">
+        <v>2</v>
+      </c>
+      <c r="E16" s="110">
         <v>6.5</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="111">
         <v>40224</v>
       </c>
-      <c r="G16" s="111">
-        <v>2</v>
-      </c>
-      <c r="H16" s="110">
+      <c r="G16" s="112">
+        <v>2</v>
+      </c>
+      <c r="H16" s="111">
         <v>40224</v>
       </c>
-      <c r="I16" s="112">
+      <c r="I16" s="113">
         <v>6.5</v>
       </c>
-      <c r="K16" s="105" t="s">
+      <c r="K16" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="106" t="s">
+      <c r="L16" s="107" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="105">
+      <c r="B17" s="106">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="109">
         <v>0.25</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="110">
         <v>6.75</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="111">
         <v>40225</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="112">
         <v>0.25</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="111">
         <v>40225</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="113">
         <v>6.75</v>
       </c>
-      <c r="K17" s="105" t="s">
+      <c r="K17" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="107" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B18" s="105">
+      <c r="B18" s="106">
         <v>7</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="109">
         <v>0.25</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="110">
         <v>7</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="111">
         <v>40225</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="112">
         <v>0.25</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="111">
         <v>40225</v>
       </c>
-      <c r="I18" s="112">
+      <c r="I18" s="113">
         <v>7</v>
       </c>
-      <c r="K18" s="119" t="s">
+      <c r="K18" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="120" t="s">
+      <c r="L18" s="121" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="105">
+      <c r="B19" s="106">
         <v>8</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="108">
-        <v>2</v>
-      </c>
-      <c r="E19" s="109">
+      <c r="D19" s="109">
+        <v>2</v>
+      </c>
+      <c r="E19" s="110">
         <v>7.5</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="111">
         <v>40225</v>
       </c>
-      <c r="G19" s="111">
-        <v>2</v>
-      </c>
-      <c r="H19" s="110">
+      <c r="G19" s="112">
+        <v>2</v>
+      </c>
+      <c r="H19" s="111">
         <v>40225</v>
       </c>
-      <c r="I19" s="112">
+      <c r="I19" s="113">
         <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="105">
+      <c r="B20" s="106">
         <v>9</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="108">
-        <v>2</v>
-      </c>
-      <c r="E20" s="109">
+      <c r="D20" s="109">
+        <v>2</v>
+      </c>
+      <c r="E20" s="110">
         <v>9.5</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="111">
         <v>40225</v>
       </c>
-      <c r="G20" s="111">
-        <v>2</v>
-      </c>
-      <c r="H20" s="110">
+      <c r="G20" s="112">
+        <v>2</v>
+      </c>
+      <c r="H20" s="111">
         <v>40225</v>
       </c>
-      <c r="I20" s="112">
+      <c r="I20" s="113">
         <v>9.5</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="105">
+      <c r="B21" s="106">
         <v>10</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="108">
-        <v>2</v>
-      </c>
-      <c r="E21" s="109">
+      <c r="D21" s="109">
+        <v>2</v>
+      </c>
+      <c r="E21" s="110">
         <v>11.5</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="111">
         <v>40225</v>
       </c>
-      <c r="G21" s="111">
-        <v>2</v>
-      </c>
-      <c r="H21" s="110">
+      <c r="G21" s="112">
+        <v>2</v>
+      </c>
+      <c r="H21" s="111">
         <v>40225</v>
       </c>
-      <c r="I21" s="112">
+      <c r="I21" s="113">
         <v>11.5</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="105">
+      <c r="B22" s="106">
         <v>11</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="109">
         <v>5</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="110">
         <v>16.5</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="111">
         <v>40226</v>
       </c>
-      <c r="G22" s="111">
+      <c r="G22" s="112">
         <v>5</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="111">
         <v>40226</v>
       </c>
-      <c r="I22" s="112">
+      <c r="I22" s="113">
         <v>16.5</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="105">
+      <c r="B23" s="106">
         <v>12</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="109">
         <v>1</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="110">
         <v>17.5</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="111">
         <v>40226</v>
       </c>
-      <c r="G23" s="111">
+      <c r="G23" s="112">
         <v>1</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="111">
         <v>40226</v>
       </c>
-      <c r="I23" s="112">
+      <c r="I23" s="113">
         <v>17.5</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="105">
+      <c r="B24" s="106">
         <v>13</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="109">
         <v>0.25</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="110">
         <v>17.75</v>
       </c>
-      <c r="F24" s="110">
+      <c r="F24" s="111">
         <v>40227</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="112">
         <v>0.25</v>
       </c>
-      <c r="H24" s="110">
+      <c r="H24" s="111">
         <v>40227</v>
       </c>
-      <c r="I24" s="112">
+      <c r="I24" s="113">
         <v>17.75</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="105">
+      <c r="B25" s="106">
         <v>14</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="109">
         <v>0.25</v>
       </c>
-      <c r="E25" s="109">
+      <c r="E25" s="110">
         <v>18</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="111">
         <v>40227</v>
       </c>
-      <c r="G25" s="111">
+      <c r="G25" s="112">
         <v>0.25</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="111">
         <v>40227</v>
       </c>
-      <c r="I25" s="112">
+      <c r="I25" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="105">
+      <c r="B26" s="106">
         <v>15</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="108">
-        <v>2</v>
-      </c>
-      <c r="E26" s="109">
+      <c r="D26" s="109">
+        <v>2</v>
+      </c>
+      <c r="E26" s="110">
         <v>20</v>
       </c>
-      <c r="F26" s="110">
+      <c r="F26" s="111">
         <v>40227</v>
       </c>
-      <c r="G26" s="111">
-        <v>2</v>
-      </c>
-      <c r="H26" s="110">
+      <c r="G26" s="112">
+        <v>2</v>
+      </c>
+      <c r="H26" s="111">
         <v>40227</v>
       </c>
-      <c r="I26" s="112">
+      <c r="I26" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="105">
+      <c r="B27" s="106">
         <v>16</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="108">
-        <v>2</v>
-      </c>
-      <c r="E27" s="109">
+      <c r="D27" s="109">
+        <v>2</v>
+      </c>
+      <c r="E27" s="110">
         <v>22</v>
       </c>
-      <c r="F27" s="110">
+      <c r="F27" s="111">
         <v>40227</v>
       </c>
-      <c r="G27" s="111">
-        <v>2</v>
-      </c>
-      <c r="H27" s="110">
+      <c r="G27" s="112">
+        <v>2</v>
+      </c>
+      <c r="H27" s="111">
         <v>40227</v>
       </c>
-      <c r="I27" s="112">
+      <c r="I27" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="105">
+      <c r="B28" s="106">
         <v>17</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="108">
+      <c r="D28" s="109">
         <v>1</v>
       </c>
-      <c r="E28" s="109">
+      <c r="E28" s="110">
         <v>23</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="111">
         <v>40227</v>
       </c>
-      <c r="G28" s="111">
+      <c r="G28" s="112">
         <v>1</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="111">
         <v>40227</v>
       </c>
-      <c r="I28" s="112">
+      <c r="I28" s="113">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="105">
+      <c r="B29" s="106">
         <v>18</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="108">
+      <c r="D29" s="109">
         <v>0.25</v>
       </c>
-      <c r="E29" s="109">
+      <c r="E29" s="110">
         <v>23.25</v>
       </c>
-      <c r="F29" s="110">
+      <c r="F29" s="111">
         <v>40228</v>
       </c>
-      <c r="G29" s="111">
+      <c r="G29" s="112">
         <v>0.25</v>
       </c>
-      <c r="H29" s="110">
+      <c r="H29" s="111">
         <v>40228</v>
       </c>
-      <c r="I29" s="112">
+      <c r="I29" s="113">
         <v>23.25</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="105">
+      <c r="B30" s="106">
         <v>19</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="108">
+      <c r="D30" s="109">
         <v>0.25</v>
       </c>
-      <c r="E30" s="109">
+      <c r="E30" s="110">
         <v>23.5</v>
       </c>
-      <c r="F30" s="110">
+      <c r="F30" s="111">
         <v>40228</v>
       </c>
-      <c r="G30" s="111">
+      <c r="G30" s="112">
         <v>0.25</v>
       </c>
-      <c r="H30" s="110">
+      <c r="H30" s="111">
         <v>40228</v>
       </c>
-      <c r="I30" s="112">
+      <c r="I30" s="113">
         <v>23.5</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="105">
+      <c r="B31" s="106">
         <v>20</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="108">
-        <v>2</v>
-      </c>
-      <c r="E31" s="109">
+      <c r="D31" s="109">
+        <v>2</v>
+      </c>
+      <c r="E31" s="110">
         <v>25.5</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="111">
         <v>40228</v>
       </c>
-      <c r="G31" s="111">
-        <v>2</v>
-      </c>
-      <c r="H31" s="110">
+      <c r="G31" s="112">
+        <v>2</v>
+      </c>
+      <c r="H31" s="111">
         <v>40228</v>
       </c>
-      <c r="I31" s="112">
+      <c r="I31" s="113">
         <v>25.5</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="105">
+      <c r="B32" s="106">
         <v>21</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="108">
-        <v>2</v>
-      </c>
-      <c r="E32" s="109">
+      <c r="D32" s="109">
+        <v>2</v>
+      </c>
+      <c r="E32" s="110">
         <v>27.5</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="111">
         <v>40228</v>
       </c>
-      <c r="G32" s="111">
-        <v>2</v>
-      </c>
-      <c r="H32" s="110">
+      <c r="G32" s="112">
+        <v>2</v>
+      </c>
+      <c r="H32" s="111">
         <v>40228</v>
       </c>
-      <c r="I32" s="112">
+      <c r="I32" s="113">
         <v>27.5</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="105">
+      <c r="B33" s="106">
         <v>22</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="108">
+      <c r="D33" s="109">
         <v>1</v>
       </c>
-      <c r="E33" s="109">
+      <c r="E33" s="110">
         <v>28.5</v>
       </c>
-      <c r="F33" s="110">
+      <c r="F33" s="111">
         <v>40228</v>
       </c>
-      <c r="G33" s="111">
+      <c r="G33" s="112">
         <v>1</v>
       </c>
-      <c r="H33" s="110">
+      <c r="H33" s="111">
         <v>40228</v>
       </c>
-      <c r="I33" s="112">
+      <c r="I33" s="113">
         <v>28.5</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="105">
+      <c r="B34" s="106">
         <v>23</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="108">
+      <c r="D34" s="109">
         <v>4</v>
       </c>
-      <c r="E34" s="109">
+      <c r="E34" s="110">
         <v>32.5</v>
       </c>
-      <c r="F34" s="110">
+      <c r="F34" s="111">
         <v>40228</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="112">
         <v>4</v>
       </c>
-      <c r="H34" s="110">
+      <c r="H34" s="111">
         <v>40228</v>
       </c>
-      <c r="I34" s="112">
+      <c r="I34" s="113">
         <v>32.5</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="105">
+      <c r="B35" s="106">
         <v>24</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="108">
+      <c r="D35" s="109">
         <v>0.5</v>
       </c>
-      <c r="E35" s="109">
+      <c r="E35" s="110">
         <v>33</v>
       </c>
-      <c r="F35" s="110">
+      <c r="F35" s="111">
         <v>40229</v>
       </c>
-      <c r="G35" s="111">
+      <c r="G35" s="112">
         <v>0.5</v>
       </c>
-      <c r="H35" s="110">
+      <c r="H35" s="111">
         <v>40229</v>
       </c>
-      <c r="I35" s="112">
+      <c r="I35" s="113">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="105">
+      <c r="B36" s="106">
         <v>25</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="108">
+      <c r="D36" s="109">
         <v>1</v>
       </c>
-      <c r="E36" s="109">
+      <c r="E36" s="110">
         <v>34</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="111">
         <v>40229</v>
       </c>
-      <c r="G36" s="111">
+      <c r="G36" s="112">
         <v>1</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="111">
         <v>40229</v>
       </c>
-      <c r="I36" s="112">
+      <c r="I36" s="113">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="105">
+      <c r="B37" s="106">
         <v>26</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="109">
         <v>3</v>
       </c>
-      <c r="E37" s="109">
+      <c r="E37" s="110">
         <v>37</v>
       </c>
-      <c r="F37" s="110">
+      <c r="F37" s="111">
         <v>40229</v>
       </c>
-      <c r="G37" s="111">
+      <c r="G37" s="112">
         <v>3</v>
       </c>
-      <c r="H37" s="110">
+      <c r="H37" s="111">
         <v>40229</v>
       </c>
-      <c r="I37" s="112">
+      <c r="I37" s="113">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B38" s="119">
+      <c r="B38" s="120">
         <v>27</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="121">
-        <v>2</v>
-      </c>
-      <c r="E38" s="122">
+      <c r="D38" s="122">
+        <v>2</v>
+      </c>
+      <c r="E38" s="123">
         <v>39</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="124">
         <v>40229</v>
       </c>
-      <c r="G38" s="124">
-        <v>2</v>
-      </c>
-      <c r="H38" s="123">
+      <c r="G38" s="125">
+        <v>2</v>
+      </c>
+      <c r="H38" s="124">
         <v>40229</v>
       </c>
-      <c r="I38" s="125">
+      <c r="I38" s="126">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
+      <c r="B40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
+      <c r="B41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
+      <c r="B42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
+      <c r="B43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
+      <c r="B44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
+      <c r="B45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
+      <c r="B46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="126"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="127"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="2">
